--- a/US Holidays 2018-2021.xlsx
+++ b/US Holidays 2018-2021.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhpwsbjut5lxpst6orzs49ytdkk.sharepoint.com/sites/ProductResearchandDevelopment/Shared Documents/General/Load Forecast Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9406B723-26DA-4A67-9474-4F1354E45827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B055610-134E-4B13-92E8-896F5ECCFBB2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="US Holidays" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,9 +109,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -274,20 +268,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -351,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -403,7 +397,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -597,33 +591,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0593F234-F7F3-4803-A580-A4FB13FCD7C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
       <c r="A1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -634,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -645,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
       <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
@@ -656,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
@@ -667,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -678,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
@@ -689,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
@@ -700,7 +694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="B9" s="15" t="s">
         <v>0</v>
       </c>
@@ -711,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
@@ -722,7 +716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
@@ -733,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
       <c r="B12" s="15" t="s">
         <v>3</v>
       </c>
@@ -744,7 +738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
       <c r="B13" s="15" t="s">
         <v>0</v>
       </c>
@@ -755,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1">
       <c r="B14" s="15" t="s">
         <v>0</v>
       </c>
@@ -766,7 +760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1">
       <c r="B15" s="15" t="s">
         <v>3</v>
       </c>
@@ -777,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -788,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1">
       <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
@@ -799,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
       <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
@@ -810,12 +804,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1">
       <c r="A19">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
@@ -826,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
@@ -837,7 +831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1">
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
@@ -848,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1">
       <c r="B24" s="5" t="s">
         <v>6</v>
       </c>
@@ -870,7 +864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1">
       <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
@@ -881,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
@@ -892,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1">
       <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
@@ -903,7 +897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1">
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
@@ -914,7 +908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1">
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -925,7 +919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1">
       <c r="B30" s="5" t="s">
         <v>0</v>
       </c>
@@ -936,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1">
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,7 +941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1">
       <c r="B32" s="5" t="s">
         <v>19</v>
       </c>
@@ -958,7 +952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1">
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
@@ -969,7 +963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1">
       <c r="B34" s="5" t="s">
         <v>19</v>
       </c>
@@ -980,7 +974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1">
       <c r="B35" s="9" t="s">
         <v>3</v>
       </c>
@@ -991,12 +985,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1">
       <c r="A36">
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1">
       <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1">
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1">
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1">
       <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1">
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1">
       <c r="B43" s="5" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1">
       <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1">
       <c r="B45" s="5" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29.4" thickBot="1">
+    <row r="46" spans="1:4" ht="30.75" thickBot="1">
       <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1">
       <c r="B47" s="5" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1">
       <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1">
       <c r="B49" s="5" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1">
       <c r="B50" s="3" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1">
       <c r="B51" s="5" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1">
       <c r="B52" s="9" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1">
       <c r="B53" s="5" t="s">
         <v>6</v>
       </c>
@@ -1183,193 +1177,193 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1">
       <c r="A54">
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1">
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55" s="12">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1">
       <c r="B56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="13">
-        <v>43850</v>
+        <v>44214</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1">
       <c r="B57" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" s="14">
-        <v>43875</v>
+        <v>44241</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
       <c r="B58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="13">
-        <v>43878</v>
+        <v>44242</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1">
+    <row r="59" spans="1:4" ht="15.75" thickBot="1">
       <c r="B59" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="14">
-        <v>43931</v>
+        <v>44288</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
       <c r="B60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="13">
-        <v>43933</v>
+        <v>44290</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1">
       <c r="B61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="14">
-        <v>43961</v>
+        <v>44325</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
       <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="13">
-        <v>43976</v>
+        <v>44347</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1">
       <c r="B63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="14">
-        <v>44003</v>
+        <v>44367</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="29.4" thickBot="1">
+    <row r="64" spans="1:4" ht="30.75" thickBot="1">
       <c r="B64" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="13">
-        <v>44015</v>
+        <v>44379</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="15" thickBot="1">
+    <row r="65" spans="2:4" ht="15.75" thickBot="1">
       <c r="B65" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C65" s="14">
-        <v>44016</v>
+        <v>44381</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="15" thickBot="1">
+    <row r="66" spans="2:4" ht="15.75" thickBot="1">
       <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="13">
-        <v>44081</v>
+        <v>44445</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="15" thickBot="1">
+    <row r="67" spans="2:4" ht="15.75" thickBot="1">
       <c r="B67" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="14">
-        <v>44116</v>
+        <v>44480</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="15" thickBot="1">
+    <row r="68" spans="2:4" ht="15.75" thickBot="1">
       <c r="B68" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C68" s="13">
-        <v>44135</v>
+        <v>44500</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="15" thickBot="1">
+    <row r="69" spans="2:4" ht="15.75" thickBot="1">
       <c r="B69" s="5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C69" s="14">
-        <v>44146</v>
+        <v>44511</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="15" thickBot="1">
+    <row r="70" spans="2:4" ht="15.75" thickBot="1">
       <c r="B70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="13">
-        <v>44161</v>
+        <v>44525</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="15" thickBot="1">
+    <row r="71" spans="2:4" ht="15.75" thickBot="1">
       <c r="B71" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C71" s="14">
-        <v>44190</v>
+        <v>44555</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>22</v>
@@ -1377,73 +1371,73 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.calendarlabs.com/holidays/us/new-years-day.php" xr:uid="{63A410CC-7649-4F85-8EA4-A4EC57A6198E}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php" xr:uid="{8E80C272-9428-4B4F-8779-B6F0F9C3E649}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://www.calendarlabs.com/holidays/us/valentines-day.php" xr:uid="{5C8CF5D7-C173-4301-82D9-21F83A6C9CB2}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.calendarlabs.com/holidays/us/presidents-day.php" xr:uid="{CE84B007-B12E-4AA1-81EB-5E038419052B}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://www.calendarlabs.com/holidays/us/good-friday.php" xr:uid="{1D6CB1B0-B7BB-4912-AC1F-00F1E25DB04F}"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://www.calendarlabs.com/holidays/us/easter.php" xr:uid="{1836DD82-4A2D-49DB-9E0F-923DA16EEE8D}"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php" xr:uid="{B0CD8D58-F6A4-4DF9-83AC-31E772BEF461}"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://www.calendarlabs.com/holidays/us/memorial-day.php" xr:uid="{99CE3821-95D7-42DF-B993-B3484D44D28D}"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://www.calendarlabs.com/holidays/fun/national-donut-day.php" xr:uid="{15695F9B-E92C-4201-9765-0762032E61E8}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php" xr:uid="{7E252E3B-949C-4890-8E5E-67305FF9EF25}"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://www.calendarlabs.com/holidays/us/independence-day.php" xr:uid="{C533ED67-790D-482B-840F-58CCA890D06E}"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://www.calendarlabs.com/holidays/us/labor-day.php" xr:uid="{88300EF5-5470-4FB6-B17C-981705AA3986}"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://www.calendarlabs.com/holidays/us/columbus-day.php" xr:uid="{CDB5D423-EF5B-4BD6-8579-81198A1E4E65}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://www.calendarlabs.com/holidays/us/halloween.php" xr:uid="{30F5387C-0A4B-4413-930A-2DCAFE529AF8}"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://www.calendarlabs.com/holidays/us/veterans-day.php" xr:uid="{21CD106F-A112-4975-B2AE-373C147BF696}"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php" xr:uid="{E04ADEEC-DE32-48B2-A4B9-F0EC00BC0589}"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://www.calendarlabs.com/holidays/us/christmas.php" xr:uid="{5E048B42-BD95-42FD-A22C-841EE0430751}"/>
-    <hyperlink ref="D20" r:id="rId18" display="https://www.calendarlabs.com/holidays/us/new-years-day.php" xr:uid="{0D0A3B27-3D34-4C19-B07D-9C098EEED4F4}"/>
-    <hyperlink ref="D21" r:id="rId19" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php" xr:uid="{4077BA1B-E655-4EC7-BD39-841A949F73AC}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://www.calendarlabs.com/holidays/us/valentines-day.php" xr:uid="{5AEF472E-5A71-4AD3-920F-81BF657457B1}"/>
-    <hyperlink ref="D23" r:id="rId21" display="https://www.calendarlabs.com/holidays/us/presidents-day.php" xr:uid="{CDFA5CE1-09BF-45C4-A38D-F7243A4DA09F}"/>
-    <hyperlink ref="D24" r:id="rId22" display="https://www.calendarlabs.com/holidays/us/good-friday.php" xr:uid="{72D2E1E7-DDAE-4B2B-8EA6-143FC11F336D}"/>
-    <hyperlink ref="D25" r:id="rId23" display="https://www.calendarlabs.com/holidays/us/easter.php" xr:uid="{ABB7BC9D-62D8-419B-A8FD-47956F4941B2}"/>
-    <hyperlink ref="D26" r:id="rId24" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php" xr:uid="{E52E46E1-B1BA-4373-B2D3-4F4D2EAF98B7}"/>
-    <hyperlink ref="D27" r:id="rId25" display="https://www.calendarlabs.com/holidays/us/memorial-day.php" xr:uid="{F1D41D0A-5D96-4868-9E86-2DF5395D14A8}"/>
-    <hyperlink ref="D28" r:id="rId26" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php" xr:uid="{8F30778D-662F-40C4-9890-8C670CA1EAE8}"/>
-    <hyperlink ref="D29" r:id="rId27" display="https://www.calendarlabs.com/holidays/us/independence-day.php" xr:uid="{06073432-295E-444E-ACC8-80B37C153678}"/>
-    <hyperlink ref="D30" r:id="rId28" display="https://www.calendarlabs.com/holidays/us/labor-day.php" xr:uid="{1964268F-92E6-4045-9079-34E1E87CB380}"/>
-    <hyperlink ref="D31" r:id="rId29" display="https://www.calendarlabs.com/holidays/us/columbus-day.php" xr:uid="{D6DD2C25-786E-468A-ABB6-81DC0D94C890}"/>
-    <hyperlink ref="D32" r:id="rId30" display="https://www.calendarlabs.com/holidays/us/halloween.php" xr:uid="{11D6FE7E-0957-4E48-8E08-BECA08E4426F}"/>
-    <hyperlink ref="D33" r:id="rId31" display="https://www.calendarlabs.com/holidays/us/veterans-day.php" xr:uid="{9DD762FD-F427-4270-B554-8E1FFAE3FBDD}"/>
-    <hyperlink ref="D34" r:id="rId32" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php" xr:uid="{37666D02-44E6-4927-97B7-CEEB7BB2212A}"/>
-    <hyperlink ref="D35" r:id="rId33" display="https://www.calendarlabs.com/holidays/us/christmas.php" xr:uid="{930F418B-5698-4437-9D75-1CD5494F7E43}"/>
-    <hyperlink ref="D37" r:id="rId34" display="https://www.calendarlabs.com/holidays/us/new-years-day.php" xr:uid="{B3FB49CB-A9FE-40B1-A157-A4037286FDA3}"/>
-    <hyperlink ref="D38" r:id="rId35" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php" xr:uid="{E0BFEF64-1473-4DA0-BC6B-8E9AFF6DC5F8}"/>
-    <hyperlink ref="D39" r:id="rId36" display="https://www.calendarlabs.com/holidays/us/valentines-day.php" xr:uid="{7C66358F-AEC5-4F7F-9264-FEAA501D0645}"/>
-    <hyperlink ref="D40" r:id="rId37" display="https://www.calendarlabs.com/holidays/us/presidents-day.php" xr:uid="{90959777-163C-4E3D-95C4-AA6C2A6669E4}"/>
-    <hyperlink ref="D41" r:id="rId38" display="https://www.calendarlabs.com/holidays/us/good-friday.php" xr:uid="{D863EFE8-B704-4677-890B-453E191B8F23}"/>
-    <hyperlink ref="D42" r:id="rId39" display="https://www.calendarlabs.com/holidays/us/easter.php" xr:uid="{385B2704-4014-4FF1-8C79-24FCFD3357ED}"/>
-    <hyperlink ref="D43" r:id="rId40" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php" xr:uid="{F3663FD5-03B6-436D-BDDA-3707E8A92BE3}"/>
-    <hyperlink ref="D44" r:id="rId41" display="https://www.calendarlabs.com/holidays/us/memorial-day.php" xr:uid="{7505FF12-9193-4759-AB0C-F93A963E70D0}"/>
-    <hyperlink ref="D45" r:id="rId42" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php" xr:uid="{2353AA18-1A97-46C3-8456-C17B81C475C1}"/>
-    <hyperlink ref="D46" r:id="rId43" display="https://www.calendarlabs.com/holidays/us/independence-day.php" xr:uid="{E7297895-C5C9-49FA-B409-E36140009C6E}"/>
-    <hyperlink ref="D47" r:id="rId44" display="https://www.calendarlabs.com/holidays/us/independence-day.php" xr:uid="{1188041C-194A-40C4-9D6B-FB8515FC8FB2}"/>
-    <hyperlink ref="D48" r:id="rId45" display="https://www.calendarlabs.com/holidays/us/labor-day.php" xr:uid="{2C71894C-1C67-4E65-8897-BD918F51F8F9}"/>
-    <hyperlink ref="D49" r:id="rId46" display="https://www.calendarlabs.com/holidays/us/columbus-day.php" xr:uid="{44C388CB-6794-46B9-A268-8F3ECFFFE596}"/>
-    <hyperlink ref="D50" r:id="rId47" display="https://www.calendarlabs.com/holidays/us/halloween.php" xr:uid="{30B5DF01-F9E5-4CA7-8865-A72EDDA1C433}"/>
-    <hyperlink ref="D51" r:id="rId48" display="https://www.calendarlabs.com/holidays/us/veterans-day.php" xr:uid="{BD3FC977-70B8-4831-BFDE-0F0CAAFBB7F9}"/>
-    <hyperlink ref="D52" r:id="rId49" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php" xr:uid="{B1CBA08F-C1EE-4389-8C20-A5834740A682}"/>
-    <hyperlink ref="D53" r:id="rId50" display="https://www.calendarlabs.com/holidays/us/christmas.php" xr:uid="{274449CB-896F-4176-AB4C-52215BB216D9}"/>
-    <hyperlink ref="D55" r:id="rId51" display="https://www.calendarlabs.com/holidays/us/new-years-day.php" xr:uid="{DF935B43-D5B8-4364-8AD1-9A137D9F3292}"/>
-    <hyperlink ref="D56" r:id="rId52" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php" xr:uid="{43D6B860-4C87-41CE-A7F2-7E7B294A6185}"/>
-    <hyperlink ref="D57" r:id="rId53" display="https://www.calendarlabs.com/holidays/us/valentines-day.php" xr:uid="{ED60D794-A320-4039-842F-C9AB2CF45653}"/>
-    <hyperlink ref="D58" r:id="rId54" display="https://www.calendarlabs.com/holidays/us/presidents-day.php" xr:uid="{E0CF33CD-9093-4E10-B9D2-E29F8D81712D}"/>
-    <hyperlink ref="D59" r:id="rId55" display="https://www.calendarlabs.com/holidays/us/good-friday.php" xr:uid="{49E63F02-2552-46B3-A75C-68CC4C19D821}"/>
-    <hyperlink ref="D60" r:id="rId56" display="https://www.calendarlabs.com/holidays/us/easter.php" xr:uid="{316FB145-2F60-46DB-B5D3-A70D7E7F6F86}"/>
-    <hyperlink ref="D61" r:id="rId57" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php" xr:uid="{0A1E1F0E-4048-42D9-9A53-F292BCC834CA}"/>
-    <hyperlink ref="D62" r:id="rId58" display="https://www.calendarlabs.com/holidays/us/memorial-day.php" xr:uid="{F1467419-7A47-4878-BFD2-222EFC50601F}"/>
-    <hyperlink ref="D63" r:id="rId59" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php" xr:uid="{AD77F1CF-2CDE-4D0A-8DD4-CAF5E5CBEA94}"/>
-    <hyperlink ref="D64" r:id="rId60" display="https://www.calendarlabs.com/holidays/us/independence-day.php" xr:uid="{208D944C-D591-4658-B817-567543C67BEE}"/>
-    <hyperlink ref="D65" r:id="rId61" display="https://www.calendarlabs.com/holidays/us/independence-day.php" xr:uid="{32C40836-F7AE-403A-AA2B-A24297681E50}"/>
-    <hyperlink ref="D66" r:id="rId62" display="https://www.calendarlabs.com/holidays/us/labor-day.php" xr:uid="{D20B573B-4B5B-481E-9FCD-40B4159B7586}"/>
-    <hyperlink ref="D67" r:id="rId63" display="https://www.calendarlabs.com/holidays/us/columbus-day.php" xr:uid="{D2B1FBC8-D939-4D6C-86FB-1B5D3DA9685B}"/>
-    <hyperlink ref="D68" r:id="rId64" display="https://www.calendarlabs.com/holidays/us/halloween.php" xr:uid="{78E4953E-4249-4F49-AE93-E523A881C45F}"/>
-    <hyperlink ref="D69" r:id="rId65" display="https://www.calendarlabs.com/holidays/us/veterans-day.php" xr:uid="{22784B30-F8C9-4354-89A4-B65A45D4BD51}"/>
-    <hyperlink ref="D70" r:id="rId66" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php" xr:uid="{83D8B65D-3448-41CE-8CA0-D693C46E7EA1}"/>
-    <hyperlink ref="D71" r:id="rId67" display="https://www.calendarlabs.com/holidays/us/christmas.php" xr:uid="{2E704FE0-6969-48A4-86BB-1C196171B1F5}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.calendarlabs.com/holidays/us/new-years-day.php"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.calendarlabs.com/holidays/us/valentines-day.php"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.calendarlabs.com/holidays/us/presidents-day.php"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.calendarlabs.com/holidays/us/good-friday.php"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.calendarlabs.com/holidays/us/easter.php"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://www.calendarlabs.com/holidays/us/memorial-day.php"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://www.calendarlabs.com/holidays/fun/national-donut-day.php"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://www.calendarlabs.com/holidays/us/independence-day.php"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://www.calendarlabs.com/holidays/us/labor-day.php"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://www.calendarlabs.com/holidays/us/columbus-day.php"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://www.calendarlabs.com/holidays/us/halloween.php"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.calendarlabs.com/holidays/us/veterans-day.php"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www.calendarlabs.com/holidays/us/christmas.php"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://www.calendarlabs.com/holidays/us/new-years-day.php"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://www.calendarlabs.com/holidays/us/valentines-day.php"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://www.calendarlabs.com/holidays/us/presidents-day.php"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://www.calendarlabs.com/holidays/us/good-friday.php"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://www.calendarlabs.com/holidays/us/easter.php"/>
+    <hyperlink ref="D26" r:id="rId24" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php"/>
+    <hyperlink ref="D27" r:id="rId25" display="https://www.calendarlabs.com/holidays/us/memorial-day.php"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php"/>
+    <hyperlink ref="D29" r:id="rId27" display="https://www.calendarlabs.com/holidays/us/independence-day.php"/>
+    <hyperlink ref="D30" r:id="rId28" display="https://www.calendarlabs.com/holidays/us/labor-day.php"/>
+    <hyperlink ref="D31" r:id="rId29" display="https://www.calendarlabs.com/holidays/us/columbus-day.php"/>
+    <hyperlink ref="D32" r:id="rId30" display="https://www.calendarlabs.com/holidays/us/halloween.php"/>
+    <hyperlink ref="D33" r:id="rId31" display="https://www.calendarlabs.com/holidays/us/veterans-day.php"/>
+    <hyperlink ref="D34" r:id="rId32" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php"/>
+    <hyperlink ref="D35" r:id="rId33" display="https://www.calendarlabs.com/holidays/us/christmas.php"/>
+    <hyperlink ref="D37" r:id="rId34" display="https://www.calendarlabs.com/holidays/us/new-years-day.php"/>
+    <hyperlink ref="D38" r:id="rId35" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php"/>
+    <hyperlink ref="D39" r:id="rId36" display="https://www.calendarlabs.com/holidays/us/valentines-day.php"/>
+    <hyperlink ref="D40" r:id="rId37" display="https://www.calendarlabs.com/holidays/us/presidents-day.php"/>
+    <hyperlink ref="D41" r:id="rId38" display="https://www.calendarlabs.com/holidays/us/good-friday.php"/>
+    <hyperlink ref="D42" r:id="rId39" display="https://www.calendarlabs.com/holidays/us/easter.php"/>
+    <hyperlink ref="D43" r:id="rId40" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php"/>
+    <hyperlink ref="D44" r:id="rId41" display="https://www.calendarlabs.com/holidays/us/memorial-day.php"/>
+    <hyperlink ref="D45" r:id="rId42" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php"/>
+    <hyperlink ref="D46" r:id="rId43" display="https://www.calendarlabs.com/holidays/us/independence-day.php"/>
+    <hyperlink ref="D47" r:id="rId44" display="https://www.calendarlabs.com/holidays/us/independence-day.php"/>
+    <hyperlink ref="D48" r:id="rId45" display="https://www.calendarlabs.com/holidays/us/labor-day.php"/>
+    <hyperlink ref="D49" r:id="rId46" display="https://www.calendarlabs.com/holidays/us/columbus-day.php"/>
+    <hyperlink ref="D50" r:id="rId47" display="https://www.calendarlabs.com/holidays/us/halloween.php"/>
+    <hyperlink ref="D51" r:id="rId48" display="https://www.calendarlabs.com/holidays/us/veterans-day.php"/>
+    <hyperlink ref="D52" r:id="rId49" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php"/>
+    <hyperlink ref="D53" r:id="rId50" display="https://www.calendarlabs.com/holidays/us/christmas.php"/>
+    <hyperlink ref="D55" r:id="rId51" display="https://www.calendarlabs.com/holidays/us/new-years-day.php"/>
+    <hyperlink ref="D56" r:id="rId52" display="https://www.calendarlabs.com/holidays/us/martin-luther-king-day.php"/>
+    <hyperlink ref="D57" r:id="rId53" display="https://www.calendarlabs.com/holidays/us/valentines-day.php"/>
+    <hyperlink ref="D58" r:id="rId54" display="https://www.calendarlabs.com/holidays/us/presidents-day.php"/>
+    <hyperlink ref="D59" r:id="rId55" display="https://www.calendarlabs.com/holidays/us/good-friday.php"/>
+    <hyperlink ref="D60" r:id="rId56" display="https://www.calendarlabs.com/holidays/us/easter.php"/>
+    <hyperlink ref="D61" r:id="rId57" display="https://www.calendarlabs.com/holidays/shared/mothers-day.php"/>
+    <hyperlink ref="D62" r:id="rId58" display="https://www.calendarlabs.com/holidays/us/memorial-day.php"/>
+    <hyperlink ref="D63" r:id="rId59" display="https://www.calendarlabs.com/holidays/shared/fathers-day.php"/>
+    <hyperlink ref="D64" r:id="rId60" display="https://www.calendarlabs.com/holidays/us/independence-day.php"/>
+    <hyperlink ref="D65" r:id="rId61" display="https://www.calendarlabs.com/holidays/us/independence-day.php"/>
+    <hyperlink ref="D66" r:id="rId62" display="https://www.calendarlabs.com/holidays/us/labor-day.php"/>
+    <hyperlink ref="D67" r:id="rId63" display="https://www.calendarlabs.com/holidays/us/columbus-day.php"/>
+    <hyperlink ref="D68" r:id="rId64" display="https://www.calendarlabs.com/holidays/us/halloween.php"/>
+    <hyperlink ref="D69" r:id="rId65" display="https://www.calendarlabs.com/holidays/us/veterans-day.php"/>
+    <hyperlink ref="D70" r:id="rId66" display="https://www.calendarlabs.com/holidays/us/thanksgiving-day.php"/>
+    <hyperlink ref="D71" r:id="rId67" display="https://www.calendarlabs.com/holidays/us/christmas.php"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId68"/>
@@ -1451,6 +1445,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EB93130626BF8E4899FC05FDEF0CCD41" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddc3e8a4b0144ff35620e4489b641c91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -1564,34 +1573,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435849B2-B1AD-4FC9-99EF-6B8217D6A796}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45C6FE90-2C7E-4A91-8C87-67C6FCA62795}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A270A59-07D5-440F-BA81-BFAC1B039CD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1604,4 +1586,28 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45C6FE90-2C7E-4A91-8C87-67C6FCA62795}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435849B2-B1AD-4FC9-99EF-6B8217D6A796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>